--- a/public/docs/data.xlsx
+++ b/public/docs/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHPApplication\phpspreadsheet-laravel\public\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\laravel-practice\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2814,13 +2814,13 @@
     <t>circle_name</t>
   </si>
   <si>
-    <t>asses_name</t>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3175,7 +3175,7 @@
   <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J197" sqref="J197"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
